--- a/gdp_revisions_datasets/dummies_df.xlsx
+++ b/gdp_revisions_datasets/dummies_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_FC462F35065B4EDFE54878D6425DCE3AC65F6258" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEDE6101-8F36-45FB-BCE7-68950E69465D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_FC4697B5C468BEDFE54878D6425DCE3AC65F6258" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65AEA4D5-D923-470D-95B0-4AC30085391F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1814,7 +1814,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:OA1475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="IE1" workbookViewId="0">
+      <selection activeCell="IU958" sqref="IU958"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/gdp_revisions_datasets/dummies_df.xlsx
+++ b/gdp_revisions_datasets/dummies_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb59f80414e38fcc/Documentos/Research Assistant/CIUP/GDP Revisions/GitHub/peru_gdp_revisions/gdp_revisions_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_FC4697B5C468BEDFE54878D6425DCE3AC65F6258" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65AEA4D5-D923-470D-95B0-4AC30085391F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_FC46D025C7585ADEE54878D6425DCE3AC65F6258" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6ED1E8D-C48E-4AB9-A6A6-941AE98FF58D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1814,8 +1814,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:OA1475"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IE1" workbookViewId="0">
-      <selection activeCell="IU958" sqref="IU958"/>
+    <sheetView tabSelected="1" topLeftCell="IE979" workbookViewId="0">
+      <selection activeCell="JA1489" sqref="JA1489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
